--- a/seronetTemplates/20211202_immport-template-mapper/docs/seronet-data-submission-template.xlsx
+++ b/seronetTemplates/20211202_immport-template-mapper/docs/seronet-data-submission-template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/purkayasthaa/Desktop/ExpandDataCommons/SeroNet/projects/20211202_immport-template-mapper/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/20211202_immport-template-mapper/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010F0078-49D0-7346-B1AB-0CACC22D0852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88919C72-0CA3-3D46-865C-BDD1812A100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28040" windowHeight="16740" activeTab="3" xr2:uid="{65A2431A-5B6A-714C-8664-5287103C105C}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="28040" windowHeight="16740" xr2:uid="{65A2431A-5B6A-714C-8664-5287103C105C}"/>
   </bookViews>
   <sheets>
     <sheet name="demographic" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="assay_information" sheetId="4" r:id="rId4"/>
     <sheet name="Value_Lists" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>subject_id</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>AR</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
@@ -532,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F398C5-5003-BC4E-8781-8C55E38AA84F}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -593,8 +608,17 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -613,6 +637,18 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -630,6 +666,18 @@
       <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -647,6 +695,18 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -664,6 +724,18 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -681,6 +753,15 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -698,6 +779,15 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -715,6 +805,18 @@
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -731,6 +833,18 @@
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5077761A-A2D1-124E-A28E-452B6729C045}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -834,7 +948,7 @@
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -868,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -885,7 +999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -902,7 +1016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -910,22 +1024,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
